--- a/eingabe/Schuelerwuensche.xlsx
+++ b/eingabe/Schuelerwuensche.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\+++Schule\LF12\Projekt Berufsorientierungstag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekt\eingabe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D3104B-4063-45C2-8F55-2225ED32774C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82443D-C1E4-4D93-9D30-D78ADBA78438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wahl" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="278">
   <si>
     <t>Klasse</t>
   </si>
@@ -857,9 +857,6 @@
   </si>
   <si>
     <t>Tahir</t>
-  </si>
-  <si>
-    <t>Unternehmen</t>
   </si>
 </sst>
 </file>
@@ -1717,10 +1714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9D0705-4684-4B32-B343-DBA4607380EC}">
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M28"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1726,7 @@
     <col min="9" max="9" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1757,11 +1754,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1771,33 +1765,8 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>19</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>22</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <f>COUNTIF(Wahlbereich,L2)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1816,24 +1785,8 @@
       <c r="F3">
         <v>9</v>
       </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <f>COUNTIF(Wahlbereich,L3)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1846,30 +1799,8 @@
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <f>COUNTIF(Wahlbereich,L4)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1897,15 +1828,8 @@
       <c r="I5">
         <v>15</v>
       </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <f>COUNTIF(Wahlbereich,L5)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1933,15 +1857,8 @@
       <c r="I6">
         <v>23</v>
       </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <f>COUNTIF(Wahlbereich,L6)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1969,15 +1886,8 @@
       <c r="I7">
         <v>23</v>
       </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <f>COUNTIF(Wahlbereich,L7)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2005,15 +1915,8 @@
       <c r="I8">
         <v>25</v>
       </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-      <c r="M8">
-        <f>COUNTIF(Wahlbereich,L8)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2041,15 +1944,8 @@
       <c r="I9">
         <v>26</v>
       </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <f>COUNTIF(Wahlbereich,L9)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2077,15 +1973,8 @@
       <c r="I10">
         <v>22</v>
       </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10">
-        <f>COUNTIF(Wahlbereich,L10)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2113,15 +2002,8 @@
       <c r="I11">
         <v>16</v>
       </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <f>COUNTIF(Wahlbereich,L11)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2149,15 +2031,8 @@
       <c r="I12">
         <v>9</v>
       </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-      <c r="M12">
-        <f>COUNTIF(Wahlbereich,L12)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2185,15 +2060,8 @@
       <c r="I13">
         <v>22</v>
       </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-      <c r="M13">
-        <f>COUNTIF(Wahlbereich,L13)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2221,15 +2089,8 @@
       <c r="I14">
         <v>16</v>
       </c>
-      <c r="L14">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <f>COUNTIF(Wahlbereich,L14)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2257,15 +2118,8 @@
       <c r="I15">
         <v>26</v>
       </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15">
-        <f>COUNTIF(Wahlbereich,L15)</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2293,15 +2147,8 @@
       <c r="I16">
         <v>18</v>
       </c>
-      <c r="L16">
-        <v>15</v>
-      </c>
-      <c r="M16">
-        <f>COUNTIF(Wahlbereich,L16)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2329,15 +2176,8 @@
       <c r="I17">
         <v>10</v>
       </c>
-      <c r="L17">
-        <v>16</v>
-      </c>
-      <c r="M17">
-        <f>COUNTIF(Wahlbereich,L17)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2365,15 +2205,8 @@
       <c r="I18">
         <v>11</v>
       </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <f>COUNTIF(Wahlbereich,L18)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2401,15 +2234,8 @@
       <c r="I19">
         <v>6</v>
       </c>
-      <c r="L19">
-        <v>18</v>
-      </c>
-      <c r="M19">
-        <f>COUNTIF(Wahlbereich,L19)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2437,15 +2263,8 @@
       <c r="I20">
         <v>13</v>
       </c>
-      <c r="L20">
-        <v>19</v>
-      </c>
-      <c r="M20">
-        <f>COUNTIF(Wahlbereich,L20)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2473,15 +2292,8 @@
       <c r="I21">
         <v>19</v>
       </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-      <c r="M21">
-        <f>COUNTIF(Wahlbereich,L21)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2509,15 +2321,8 @@
       <c r="I22">
         <v>25</v>
       </c>
-      <c r="L22">
-        <v>21</v>
-      </c>
-      <c r="M22">
-        <f>COUNTIF(Wahlbereich,L22)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2545,15 +2350,8 @@
       <c r="I23">
         <v>16</v>
       </c>
-      <c r="L23">
-        <v>22</v>
-      </c>
-      <c r="M23">
-        <f>COUNTIF(Wahlbereich,L23)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2581,15 +2379,8 @@
       <c r="I24">
         <v>19</v>
       </c>
-      <c r="L24">
-        <v>23</v>
-      </c>
-      <c r="M24">
-        <f>COUNTIF(Wahlbereich,L24)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2617,15 +2408,8 @@
       <c r="I25">
         <v>9</v>
       </c>
-      <c r="L25">
-        <v>24</v>
-      </c>
-      <c r="M25">
-        <f>COUNTIF(Wahlbereich,L25)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -2653,15 +2437,8 @@
       <c r="I26">
         <v>11</v>
       </c>
-      <c r="L26">
-        <v>25</v>
-      </c>
-      <c r="M26">
-        <f>COUNTIF(Wahlbereich,L26)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2689,15 +2466,8 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>26</v>
-      </c>
-      <c r="M27">
-        <f>COUNTIF(Wahlbereich,L27)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2725,15 +2495,8 @@
       <c r="I28">
         <v>13</v>
       </c>
-      <c r="L28">
-        <v>27</v>
-      </c>
-      <c r="M28">
-        <f>COUNTIF(Wahlbereich,L28)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2762,7 +2525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2791,7 +2554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2820,7 +2583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>

--- a/eingabe/Schuelerwuensche.xlsx
+++ b/eingabe/Schuelerwuensche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekt\eingabe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82443D-C1E4-4D93-9D30-D78ADBA78438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189416BB-2D69-42FA-B025-AEBBB44CBA3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Wahl" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Wahlbereich">Wahl!$D$2:$I$176</definedName>
+    <definedName name="Wahlbereich">Wahl!$D$2:$I$177</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
@@ -1351,10 +1351,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1434,8 +1435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C53DED0-69DF-7841-B0CF-29EFB67CA444}" name="Tabelle1" displayName="Tabelle1" ref="A1:I136" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:I136" xr:uid="{3C53DED0-69DF-7841-B0CF-29EFB67CA444}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3C53DED0-69DF-7841-B0CF-29EFB67CA444}" name="Tabelle1" displayName="Tabelle1" ref="A1:I137" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:I137" xr:uid="{3C53DED0-69DF-7841-B0CF-29EFB67CA444}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A6D57965-0181-0147-92A8-E6EB6C2B617F}" name="Klasse" dataCellStyle="Standard 2"/>
     <tableColumn id="2" xr3:uid="{4130A0ED-5EE8-2949-8BD7-1FECED30895E}" name="Name"/>
@@ -1714,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9D0705-4684-4B32-B343-DBA4607380EC}">
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,90 +1860,64 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>16</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>16</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>18</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>23</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>24</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>18</v>
-      </c>
-      <c r="I9">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1950,28 +1925,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>14</v>
       </c>
       <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
         <v>26</v>
-      </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="I10">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1979,28 +1954,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2008,28 +1983,28 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
         <v>16</v>
-      </c>
-      <c r="G12">
-        <v>17</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2037,28 +2012,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2066,28 +2041,28 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I14">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2095,57 +2070,57 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G15">
+        <v>18</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
         <v>16</v>
-      </c>
-      <c r="H15">
-        <v>23</v>
-      </c>
-      <c r="I15">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
         <v>16</v>
       </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
       <c r="H16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I16">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2153,28 +2128,28 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
         <v>9</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>6</v>
       </c>
-      <c r="F17">
-        <v>17</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>13</v>
-      </c>
       <c r="I17">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2182,28 +2157,28 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
         <v>10</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2211,28 +2186,28 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>19</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2240,28 +2215,28 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
         <v>18</v>
       </c>
-      <c r="E20">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <v>21</v>
-      </c>
-      <c r="G20">
-        <v>27</v>
-      </c>
       <c r="H20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2269,28 +2244,28 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
         <v>13</v>
-      </c>
-      <c r="I21">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2298,28 +2273,28 @@
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <v>20</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I22">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2327,28 +2302,28 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>19</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2356,28 +2331,28 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
         <v>18</v>
       </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>14</v>
-      </c>
       <c r="G24">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I24">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2385,28 +2360,28 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2414,28 +2389,28 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>26</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="I26">
         <v>9</v>
-      </c>
-      <c r="E26">
-        <v>19</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>16</v>
-      </c>
-      <c r="I26">
-        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2443,28 +2418,28 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2472,28 +2447,28 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
         <v>3</v>
       </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>7</v>
-      </c>
-      <c r="G28">
-        <v>12</v>
-      </c>
       <c r="H28">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2504,25 +2479,25 @@
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H29">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2530,28 +2505,28 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
         <v>16</v>
       </c>
-      <c r="E30">
-        <v>24</v>
-      </c>
-      <c r="F30">
-        <v>18</v>
-      </c>
       <c r="G30">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I30">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,28 +2534,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I31">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2588,28 +2563,28 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
         <v>18</v>
       </c>
-      <c r="F32">
-        <v>17</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
       <c r="H32">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2617,28 +2592,28 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F33">
+        <v>17</v>
+      </c>
+      <c r="G33">
         <v>6</v>
       </c>
-      <c r="G33">
-        <v>17</v>
-      </c>
       <c r="H33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I33">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2646,25 +2621,25 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
         <v>17</v>
       </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
       <c r="H34">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I34">
         <v>9</v>
@@ -2675,28 +2650,28 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>17</v>
+      </c>
+      <c r="G35">
         <v>6</v>
       </c>
-      <c r="E35">
-        <v>26</v>
-      </c>
-      <c r="F35">
-        <v>18</v>
-      </c>
-      <c r="G35">
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
         <v>9</v>
-      </c>
-      <c r="H35">
-        <v>16</v>
-      </c>
-      <c r="I35">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2704,22 +2679,22 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E36">
+        <v>26</v>
+      </c>
+      <c r="F36">
+        <v>18</v>
+      </c>
+      <c r="G36">
         <v>9</v>
-      </c>
-      <c r="F36">
-        <v>21</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
       </c>
       <c r="H36">
         <v>16</v>
@@ -2733,28 +2708,28 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37">
+        <v>19</v>
+      </c>
+      <c r="E37">
         <v>9</v>
       </c>
-      <c r="E37">
-        <v>19</v>
-      </c>
       <c r="F37">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G37">
         <v>6</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2762,28 +2737,28 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G38">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I38">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2791,28 +2766,28 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+      <c r="H39">
+        <v>18</v>
+      </c>
+      <c r="I39">
         <v>22</v>
-      </c>
-      <c r="G39">
-        <v>20</v>
-      </c>
-      <c r="H39">
-        <v>21</v>
-      </c>
-      <c r="I39">
-        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2820,39 +2795,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40">
         <v>19</v>
       </c>
       <c r="E40">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F40">
+        <v>22</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
         <v>21</v>
       </c>
-      <c r="G40">
-        <v>17</v>
-      </c>
-      <c r="H40">
+      <c r="I40">
         <v>16</v>
-      </c>
-      <c r="I40">
-        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D41">
         <v>19</v>
@@ -2861,16 +2836,16 @@
         <v>18</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I41">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2878,28 +2853,28 @@
         <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42">
         <v>10</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
       <c r="I42">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2907,28 +2882,28 @@
         <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D43">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>19</v>
+      </c>
+      <c r="F43">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>10</v>
       </c>
-      <c r="F43">
-        <v>11</v>
-      </c>
-      <c r="G43">
-        <v>22</v>
-      </c>
       <c r="H43">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2936,28 +2911,28 @@
         <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44">
         <v>22</v>
       </c>
-      <c r="E44">
-        <v>19</v>
-      </c>
-      <c r="F44">
-        <v>13</v>
-      </c>
-      <c r="G44">
-        <v>26</v>
-      </c>
       <c r="H44">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I44">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2965,28 +2940,28 @@
         <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F45">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G45">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H45">
+        <v>18</v>
+      </c>
+      <c r="I45">
         <v>9</v>
-      </c>
-      <c r="I45">
-        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2994,68 +2969,68 @@
         <v>87</v>
       </c>
       <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>19</v>
+      </c>
+      <c r="H46">
+        <v>9</v>
+      </c>
+      <c r="I46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
         <v>98</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>99</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>18</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>22</v>
       </c>
-      <c r="F46">
-        <v>19</v>
-      </c>
-      <c r="G46">
+      <c r="F47">
+        <v>19</v>
+      </c>
+      <c r="G47">
         <v>26</v>
       </c>
-      <c r="H46">
+      <c r="H47">
         <v>4</v>
       </c>
-      <c r="I46">
+      <c r="I47">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>102</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
-      <c r="F47">
-        <v>12</v>
-      </c>
-      <c r="G47">
-        <v>13</v>
-      </c>
-      <c r="H47">
-        <v>14</v>
-      </c>
-      <c r="I47">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" t="s">
-        <v>104</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3081,28 +3056,28 @@
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F49">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
+      </c>
+      <c r="H49">
         <v>14</v>
       </c>
-      <c r="G49">
-        <v>19</v>
-      </c>
-      <c r="H49">
-        <v>26</v>
-      </c>
       <c r="I49">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3110,28 +3085,28 @@
         <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G50">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I50">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3139,28 +3114,28 @@
         <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>6</v>
       </c>
       <c r="F51">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H51">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3168,28 +3143,28 @@
         <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E52">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F52">
+        <v>15</v>
+      </c>
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
       <c r="H52">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I52">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3197,28 +3172,28 @@
         <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I53">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3226,28 +3201,28 @@
         <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>26</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
         <v>5</v>
       </c>
-      <c r="E54">
-        <v>12</v>
-      </c>
-      <c r="F54">
-        <v>13</v>
-      </c>
-      <c r="G54">
-        <v>18</v>
-      </c>
       <c r="H54">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3255,28 +3230,28 @@
         <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E55">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F55">
+        <v>13</v>
+      </c>
+      <c r="G55">
         <v>18</v>
       </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
       <c r="H55">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3284,28 +3259,28 @@
         <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H56">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I56">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3313,28 +3288,28 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F57">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H57">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3342,28 +3317,28 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F58">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3371,28 +3346,28 @@
         <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D59">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>16</v>
+      </c>
+      <c r="G59">
         <v>6</v>
       </c>
-      <c r="E59">
-        <v>19</v>
-      </c>
-      <c r="F59">
-        <v>20</v>
-      </c>
-      <c r="G59">
-        <v>15</v>
-      </c>
       <c r="H59">
+        <v>14</v>
+      </c>
+      <c r="I59">
         <v>3</v>
-      </c>
-      <c r="I59">
-        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3400,57 +3375,57 @@
         <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E60">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G60">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
         <v>14</v>
-      </c>
-      <c r="I60">
-        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F61">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G61">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H61">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3458,28 +3433,28 @@
         <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F62">
+        <v>24</v>
+      </c>
+      <c r="G62">
+        <v>23</v>
+      </c>
+      <c r="H62">
+        <v>27</v>
+      </c>
+      <c r="I62">
         <v>1</v>
-      </c>
-      <c r="G62">
-        <v>10</v>
-      </c>
-      <c r="H62">
-        <v>15</v>
-      </c>
-      <c r="I62">
-        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3487,28 +3462,28 @@
         <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
         <v>6</v>
       </c>
-      <c r="E63">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>10</v>
       </c>
-      <c r="F63">
-        <v>11</v>
-      </c>
-      <c r="G63">
-        <v>2</v>
-      </c>
       <c r="H63">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3516,28 +3491,28 @@
         <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D64">
         <v>6</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
         <v>27</v>
       </c>
-      <c r="G64">
-        <v>15</v>
-      </c>
-      <c r="H64">
-        <v>13</v>
-      </c>
       <c r="I64">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3545,28 +3520,28 @@
         <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F65">
+        <v>27</v>
+      </c>
+      <c r="G65">
+        <v>15</v>
+      </c>
+      <c r="H65">
         <v>13</v>
       </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>27</v>
-      </c>
       <c r="I65">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3574,10 +3549,10 @@
         <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D66">
         <v>10</v>
@@ -3586,16 +3561,16 @@
         <v>11</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3603,28 +3578,28 @@
         <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D67">
         <v>10</v>
       </c>
       <c r="E67">
+        <v>11</v>
+      </c>
+      <c r="F67">
         <v>9</v>
       </c>
-      <c r="F67">
-        <v>11</v>
-      </c>
       <c r="G67">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I67">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3632,28 +3607,28 @@
         <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>14</v>
+      </c>
+      <c r="H68">
+        <v>7</v>
+      </c>
+      <c r="I68">
         <v>13</v>
-      </c>
-      <c r="G68">
-        <v>25</v>
-      </c>
-      <c r="H68">
-        <v>26</v>
-      </c>
-      <c r="I68">
-        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3661,28 +3636,28 @@
         <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>13</v>
+      </c>
+      <c r="G69">
+        <v>25</v>
+      </c>
+      <c r="H69">
         <v>26</v>
       </c>
-      <c r="E69">
-        <v>14</v>
-      </c>
-      <c r="F69">
-        <v>19</v>
-      </c>
-      <c r="G69">
-        <v>18</v>
-      </c>
-      <c r="H69">
-        <v>22</v>
-      </c>
       <c r="I69">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3690,28 +3665,28 @@
         <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G70">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H70">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I70">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3719,28 +3694,28 @@
         <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D71">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E71">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H71">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I71">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3748,13 +3723,13 @@
         <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E72">
         <v>19</v>
@@ -3763,13 +3738,13 @@
         <v>18</v>
       </c>
       <c r="G72">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H72">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3777,28 +3752,28 @@
         <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D73">
         <v>9</v>
       </c>
       <c r="E73">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F73">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H73">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I73">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3806,28 +3781,28 @@
         <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74">
         <v>3</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>27</v>
-      </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
       <c r="H74">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3835,28 +3810,28 @@
         <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
         <v>1</v>
       </c>
-      <c r="E75">
-        <v>19</v>
-      </c>
       <c r="F75">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G75">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3867,22 +3842,22 @@
         <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F76">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I76">
         <v>2</v>
@@ -3893,28 +3868,28 @@
         <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E77">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F77">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G77">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H77">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3922,28 +3897,28 @@
         <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E78">
         <v>18</v>
       </c>
       <c r="F78">
+        <v>19</v>
+      </c>
+      <c r="G78">
+        <v>16</v>
+      </c>
+      <c r="H78">
+        <v>15</v>
+      </c>
+      <c r="I78">
         <v>14</v>
-      </c>
-      <c r="G78">
-        <v>19</v>
-      </c>
-      <c r="H78">
-        <v>12</v>
-      </c>
-      <c r="I78">
-        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3951,28 +3926,28 @@
         <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79">
         <v>7</v>
       </c>
       <c r="E79">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F79">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G79">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I79">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3980,28 +3955,28 @@
         <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E80">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F80">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G80">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H80">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4009,25 +3984,28 @@
         <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F81">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G81">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H81">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4035,28 +4013,25 @@
         <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D82">
         <v>10</v>
       </c>
       <c r="E82">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F82">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G82">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H82">
-        <v>9</v>
-      </c>
-      <c r="I82">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4064,57 +4039,57 @@
         <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D83">
         <v>10</v>
       </c>
       <c r="E83">
+        <v>17</v>
+      </c>
+      <c r="F83">
         <v>18</v>
       </c>
-      <c r="F83">
-        <v>14</v>
-      </c>
       <c r="G83">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I83">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E84">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G84">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H84">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I84">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4122,28 +4097,28 @@
         <v>173</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F85">
         <v>8</v>
       </c>
       <c r="G85">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H85">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I85">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4151,28 +4126,28 @@
         <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D86">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F86">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G86">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H86">
         <v>15</v>
       </c>
       <c r="I86">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4180,28 +4155,28 @@
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D87">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E87">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I87">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4209,28 +4184,28 @@
         <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="D88">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E88">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F88">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G88">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I88">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4238,28 +4213,28 @@
         <v>173</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89">
         <v>13</v>
       </c>
-      <c r="G89">
-        <v>14</v>
-      </c>
       <c r="H89">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4267,28 +4242,28 @@
         <v>173</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E90">
+        <v>12</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90">
         <v>14</v>
       </c>
-      <c r="F90">
-        <v>17</v>
-      </c>
-      <c r="G90">
-        <v>3</v>
-      </c>
       <c r="H90">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I90">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4296,28 +4271,28 @@
         <v>173</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D91">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F91">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G91">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4325,28 +4300,28 @@
         <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D92">
+        <v>25</v>
+      </c>
+      <c r="E92">
+        <v>22</v>
+      </c>
+      <c r="F92">
+        <v>20</v>
+      </c>
+      <c r="G92">
+        <v>21</v>
+      </c>
+      <c r="H92">
         <v>2</v>
       </c>
-      <c r="E92">
-        <v>18</v>
-      </c>
-      <c r="F92">
-        <v>15</v>
-      </c>
-      <c r="G92">
-        <v>3</v>
-      </c>
-      <c r="H92">
-        <v>6</v>
-      </c>
       <c r="I92">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4354,28 +4329,28 @@
         <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D93">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F93">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
       <c r="H93">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I93">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4383,28 +4358,28 @@
         <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D94">
+        <v>22</v>
+      </c>
+      <c r="E94">
         <v>26</v>
       </c>
-      <c r="E94">
-        <v>19</v>
-      </c>
       <c r="F94">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G94">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H94">
+        <v>14</v>
+      </c>
+      <c r="I94">
         <v>10</v>
-      </c>
-      <c r="I94">
-        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4412,28 +4387,28 @@
         <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E95">
         <v>19</v>
       </c>
       <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95">
         <v>13</v>
       </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
       <c r="H95">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I95">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -4441,28 +4416,28 @@
         <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D96">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>19</v>
       </c>
       <c r="F96">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G96">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H96">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I96">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4470,28 +4445,28 @@
         <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D97">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H97">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I97">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4499,28 +4474,28 @@
         <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D98">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>9</v>
+      </c>
+      <c r="H98">
         <v>16</v>
       </c>
-      <c r="F98">
-        <v>13</v>
-      </c>
-      <c r="G98">
-        <v>17</v>
-      </c>
-      <c r="H98">
-        <v>8</v>
-      </c>
       <c r="I98">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4528,25 +4503,25 @@
         <v>173</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E99">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F99">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G99">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H99">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I99">
         <v>19</v>
@@ -4557,28 +4532,28 @@
         <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
         <v>18</v>
       </c>
-      <c r="E100">
-        <v>6</v>
-      </c>
-      <c r="F100">
-        <v>10</v>
-      </c>
       <c r="G100">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H100">
         <v>16</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -4586,28 +4561,28 @@
         <v>173</v>
       </c>
       <c r="B101" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D101">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E101">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F101">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G101">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H101">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I101">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -4615,28 +4590,28 @@
         <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D102">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E102">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102">
         <v>6</v>
       </c>
-      <c r="G102">
-        <v>21</v>
-      </c>
       <c r="H102">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I102">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -4644,57 +4619,57 @@
         <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F103">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G103">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H103">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>215</v>
+        <v>173</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G104">
         <v>9</v>
       </c>
       <c r="H104">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I104">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -4702,28 +4677,28 @@
         <v>213</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D105">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="F105">
+        <v>7</v>
+      </c>
+      <c r="G105">
+        <v>9</v>
+      </c>
+      <c r="H105">
+        <v>12</v>
+      </c>
+      <c r="I105">
         <v>20</v>
-      </c>
-      <c r="F105">
-        <v>18</v>
-      </c>
-      <c r="G105">
-        <v>14</v>
-      </c>
-      <c r="H105">
-        <v>21</v>
-      </c>
-      <c r="I105">
-        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -4731,28 +4706,28 @@
         <v>213</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D106">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E106">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F106">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G106">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I106">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4760,28 +4735,28 @@
         <v>213</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D107">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F107">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G107">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H107">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4789,28 +4764,28 @@
         <v>213</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D108">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E108">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F108">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G108">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H108">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4818,28 +4793,28 @@
         <v>213</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D109">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E109">
+        <v>13</v>
+      </c>
+      <c r="F109">
+        <v>19</v>
+      </c>
+      <c r="G109">
         <v>6</v>
       </c>
-      <c r="F109">
+      <c r="H109">
+        <v>22</v>
+      </c>
+      <c r="I109">
         <v>4</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109">
-        <v>5</v>
-      </c>
-      <c r="I109">
-        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4847,28 +4822,28 @@
         <v>213</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D110">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E110">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F110">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G110">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I110">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4876,28 +4851,28 @@
         <v>213</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D111">
         <v>23</v>
       </c>
       <c r="E111">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111">
         <v>26</v>
       </c>
-      <c r="G111">
-        <v>25</v>
-      </c>
       <c r="H111">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4905,28 +4880,28 @@
         <v>213</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D112">
         <v>23</v>
       </c>
       <c r="E112">
+        <v>15</v>
+      </c>
+      <c r="F112">
+        <v>26</v>
+      </c>
+      <c r="G112">
+        <v>25</v>
+      </c>
+      <c r="H112">
         <v>22</v>
       </c>
-      <c r="F112">
-        <v>24</v>
-      </c>
-      <c r="G112">
-        <v>13</v>
-      </c>
-      <c r="H112">
-        <v>3</v>
-      </c>
       <c r="I112">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4934,28 +4909,28 @@
         <v>213</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D113">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F113">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G113">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4963,28 +4938,28 @@
         <v>213</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D114">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G114">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H114">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I114">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4992,28 +4967,28 @@
         <v>213</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E115">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G115">
         <v>26</v>
       </c>
       <c r="H115">
+        <v>22</v>
+      </c>
+      <c r="I115">
         <v>23</v>
-      </c>
-      <c r="I115">
-        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5021,28 +4996,28 @@
         <v>213</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D116">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E116">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H116">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5050,10 +5025,10 @@
         <v>213</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D117">
         <v>14</v>
@@ -5079,28 +5054,28 @@
         <v>213</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D118">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E118">
+        <v>17</v>
+      </c>
+      <c r="F118">
         <v>10</v>
       </c>
-      <c r="F118">
-        <v>20</v>
-      </c>
       <c r="G118">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5108,28 +5083,28 @@
         <v>213</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D119">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119">
+        <v>21</v>
+      </c>
+      <c r="H119">
+        <v>5</v>
+      </c>
+      <c r="I119">
         <v>26</v>
-      </c>
-      <c r="E119">
-        <v>19</v>
-      </c>
-      <c r="F119">
-        <v>18</v>
-      </c>
-      <c r="G119">
-        <v>14</v>
-      </c>
-      <c r="H119">
-        <v>23</v>
-      </c>
-      <c r="I119">
-        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5137,28 +5112,28 @@
         <v>213</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D120">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F120">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G120">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H120">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I120">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5166,54 +5141,54 @@
         <v>213</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>7</v>
+      </c>
+      <c r="G121">
+        <v>12</v>
+      </c>
+      <c r="H121">
+        <v>13</v>
+      </c>
+      <c r="I121">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D121">
+      <c r="D122">
         <v>23</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <v>16</v>
       </c>
-      <c r="F121">
+      <c r="F122">
         <v>15</v>
       </c>
-      <c r="G121">
+      <c r="G122">
         <v>11</v>
       </c>
-      <c r="H121">
+      <c r="H122">
         <v>6</v>
-      </c>
-      <c r="I121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B122" t="s">
-        <v>250</v>
-      </c>
-      <c r="C122" t="s">
-        <v>251</v>
-      </c>
-      <c r="D122">
-        <v>14</v>
-      </c>
-      <c r="E122">
-        <v>19</v>
-      </c>
-      <c r="F122">
-        <v>26</v>
-      </c>
-      <c r="G122">
-        <v>22</v>
-      </c>
-      <c r="H122">
-        <v>20</v>
       </c>
       <c r="I122">
         <v>3</v>
@@ -5224,28 +5199,28 @@
         <v>249</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C123" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D123">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E123">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F123">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G123">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H123">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -5253,28 +5228,28 @@
         <v>249</v>
       </c>
       <c r="B124" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D124">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E124">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F124">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G124">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H124">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5282,28 +5257,28 @@
         <v>249</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="D125">
         <v>19</v>
       </c>
       <c r="E125">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F125">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G125">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I125">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5311,28 +5286,28 @@
         <v>249</v>
       </c>
       <c r="B126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C126" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D126">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E126">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F126">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G126">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H126">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I126">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5340,28 +5315,28 @@
         <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C127" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D127">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E127">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G127">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H127">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I127">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5369,28 +5344,28 @@
         <v>249</v>
       </c>
       <c r="B128" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C128" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D128">
+        <v>23</v>
+      </c>
+      <c r="E128">
+        <v>26</v>
+      </c>
+      <c r="F128">
         <v>3</v>
       </c>
-      <c r="E128">
-        <v>19</v>
-      </c>
-      <c r="F128">
-        <v>23</v>
-      </c>
       <c r="G128">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H128">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I128">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5398,28 +5373,28 @@
         <v>249</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C129" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D129">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F129">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H129">
         <v>6</v>
       </c>
       <c r="I129">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5427,28 +5402,28 @@
         <v>249</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D130">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E130">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130">
         <v>3</v>
       </c>
-      <c r="G130">
-        <v>22</v>
-      </c>
       <c r="H130">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I130">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5456,28 +5431,28 @@
         <v>249</v>
       </c>
       <c r="B131" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D131">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E131">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F131">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G131">
+        <v>22</v>
+      </c>
+      <c r="H131">
         <v>18</v>
       </c>
-      <c r="H131">
-        <v>3</v>
-      </c>
       <c r="I131">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5485,28 +5460,28 @@
         <v>249</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C132" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D132">
+        <v>19</v>
+      </c>
+      <c r="E132">
+        <v>6</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132">
+        <v>18</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
+      </c>
+      <c r="I132">
         <v>26</v>
-      </c>
-      <c r="E132">
-        <v>23</v>
-      </c>
-      <c r="F132">
-        <v>12</v>
-      </c>
-      <c r="G132">
-        <v>13</v>
-      </c>
-      <c r="H132">
-        <v>6</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5514,28 +5489,28 @@
         <v>249</v>
       </c>
       <c r="B133" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E133">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F133">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G133">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H133">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I133">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5543,28 +5518,28 @@
         <v>249</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C134" t="s">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E134">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F134">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G134">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H134">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I134">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5572,28 +5547,28 @@
         <v>249</v>
       </c>
       <c r="B135" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E135">
+        <v>6</v>
+      </c>
+      <c r="F135">
+        <v>19</v>
+      </c>
+      <c r="G135">
+        <v>14</v>
+      </c>
+      <c r="H135">
+        <v>18</v>
+      </c>
+      <c r="I135">
         <v>26</v>
-      </c>
-      <c r="F135">
-        <v>23</v>
-      </c>
-      <c r="G135">
-        <v>12</v>
-      </c>
-      <c r="H135">
-        <v>8</v>
-      </c>
-      <c r="I135">
-        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5601,35 +5576,64 @@
         <v>249</v>
       </c>
       <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" t="s">
+        <v>275</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>26</v>
+      </c>
+      <c r="F136">
+        <v>23</v>
+      </c>
+      <c r="G136">
+        <v>12</v>
+      </c>
+      <c r="H136">
+        <v>8</v>
+      </c>
+      <c r="I136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B137" t="s">
         <v>276</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>277</v>
       </c>
-      <c r="D136">
+      <c r="D137">
         <v>26</v>
       </c>
-      <c r="E136">
+      <c r="E137">
         <v>9</v>
       </c>
-      <c r="F136">
+      <c r="F137">
         <v>13</v>
       </c>
-      <c r="G136">
+      <c r="G137">
         <v>3</v>
       </c>
-      <c r="H136">
+      <c r="H137">
         <v>6</v>
       </c>
-      <c r="I136">
+      <c r="I137">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I103">
-    <sortCondition ref="A2:A103"/>
-    <sortCondition ref="B2:B103"/>
-    <sortCondition ref="C2:C103"/>
+  <sortState ref="A2:I104">
+    <sortCondition ref="A2:A104"/>
+    <sortCondition ref="B2:B104"/>
+    <sortCondition ref="C2:C104"/>
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5641,34 +5645,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc877d39-ac67-4e82-9042-477ace6c308a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19" xsi:nil="true"/>
-    <SharedWithUsers xmlns="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19">
-      <UserInfo>
-        <DisplayName>Münch, Claudia</DisplayName>
-        <AccountId>99</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Bubik, Antje</DisplayName>
-        <AccountId>100</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mack, Henning</DisplayName>
-        <AccountId>101</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010081C19C7863F32541ADB829613CC28DB5" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="166afc8a80114f770b660f6e4867dfd6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc877d39-ac67-4e82-9042-477ace6c308a" xmlns:ns3="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e835ceb0a41369cc954ffba0a3f5cde" ns2:_="" ns3:_="">
     <xsd:import namespace="dc877d39-ac67-4e82-9042-477ace6c308a"/>
@@ -5899,6 +5875,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc877d39-ac67-4e82-9042-477ace6c308a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19" xsi:nil="true"/>
+    <SharedWithUsers xmlns="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19">
+      <UserInfo>
+        <DisplayName>Münch, Claudia</DisplayName>
+        <AccountId>99</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bubik, Antje</DisplayName>
+        <AccountId>100</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mack, Henning</DisplayName>
+        <AccountId>101</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5909,23 +5913,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC737808-C46C-4161-A1F3-7C462EDEDEB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19"/>
-    <ds:schemaRef ds:uri="dc877d39-ac67-4e82-9042-477ace6c308a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E94AF2A7-3B91-4E9E-8BBE-F10980568F72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5944,6 +5931,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC737808-C46C-4161-A1F3-7C462EDEDEB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19"/>
+    <ds:schemaRef ds:uri="dc877d39-ac67-4e82-9042-477ace6c308a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C40D6BC9-2BFD-4AFA-926B-D88919A76B52}">
   <ds:schemaRefs>
